--- a/Örnek 35 - Yan Sayfadan Bilgi Almak.xlsx
+++ b/Örnek 35 - Yan Sayfadan Bilgi Almak.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F895C70E-6090-4986-BF1B-2EA8F6266E60}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFFA56A0-E643-431B-8FE9-FC3F738E9702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" tabRatio="698"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GENEL TOPLAM" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>Malzeme Adı</t>
   </si>
@@ -94,15 +97,22 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ _Y_T_L_-;\-* #,##0.00\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0\ _Y_T_L_-;\-* #,##0\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _Y_T_L_-;\-* #,##0.00\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _Y_T_L_-;\-* #,##0\ _Y_T_L_-;_-* &quot;-&quot;??\ _Y_T_L_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -587,11 +597,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,10 +668,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -769,9 +780,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ParaBirimi" xfId="2" builtinId="4"/>
     <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1049,12 +1064,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C19" sqref="C19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1084,23 +1099,32 @@
       <c r="F4" s="59"/>
     </row>
     <row r="5" spans="5:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="5:6" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="5:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="5:6" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="F6" s="61">
+        <f>ocak!E11+şubat!E11+mart!E11</f>
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E7" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="61">
+        <f>ocak!E12+şubat!E12+mart!E12</f>
+        <v>172.32</v>
+      </c>
     </row>
     <row r="8" spans="5:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E8" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="61">
+        <f>ocak!E13+şubat!E13+mart!E13</f>
+        <v>2326.3199999999997</v>
+      </c>
     </row>
     <row r="10" spans="5:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="5:6" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -1116,7 +1140,9 @@
       <c r="B17" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="60"/>
+      <c r="C17" s="60">
+        <v>20215070019</v>
+      </c>
       <c r="D17" s="60"/>
       <c r="E17" s="60"/>
       <c r="I17" s="26" t="s">
@@ -1130,7 +1156,9 @@
       <c r="B18" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="60" t="s">
+        <v>21</v>
+      </c>
       <c r="D18" s="60"/>
       <c r="E18" s="60"/>
       <c r="I18" s="28" t="s">
@@ -1144,7 +1172,9 @@
       <c r="B19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="60" t="s">
+        <v>22</v>
+      </c>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="I19" s="30" t="s">
@@ -1170,7 +1200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -1386,7 +1416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -1602,7 +1632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="A1:F21"/>
   <sheetViews>
